--- a/Question_Set2/Role-specific skills/Restaurant Management.xlsx
+++ b/Question_Set2/Role-specific skills/Restaurant Management.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As the new manager at a restaurant with an experienced front-of-house team, you have implemented additional tasks for your servers to perform when it’s slow. However, one server, Sarah, who is particularly well-liked by her customers and coworkers, has been using her seniority as an excuse for ignoring these tasks.  Which action should you take?', 'ques_type': 2, 'options': ['Schedule a meeting with Sarah, and ask her to share her opinions and hesitancy regarding the new tasks.', 'Reallocate Sarah’s share of the additional tasks to a less experienced server and increase her responsibilities serving customers.', 'Perform in-the-moment coaching by reminding Sarah of the tasks that she has overlooked and record the interaction.', 'Issue Sarah a written final warning and privately inform her that her inability to follow directions sets a bad example to the team.'], 'score': 'Schedule a meeting with Sarah, and ask her to share her opinions and hesitancy regarding the new tasks.'}, {'title': "While writing public responses to recent reviews of your restaurant posted on social media, you come across a particularly negative review. The review mentions your colleague's name, Sam, and claims that Sam treated them disrespectfully on Thursday 12 March. However, Sam was on vacation that week.  How should you respond to the review?", 'ques_type': 2, 'options': ['Reply publicly: “We’re sorry to hear about your bad experience, but you must be mistaken. Sam was on vacation on that date.”', 'Reply privately: “Sam was on vacation on that date. Could you tell us more about the incident so we can identify who it actually was?”', 'Reply publicly: “We’re sorry to hear about your bad experience and would like to hear more. Please reach out to me directly by email.”', 'Reply publicly: “We’re sorry to hear about your bad experience. Please bring in your receipt and we’ll refund the cost of your meal.”'], 'score': 'Reply publicly: “We’re sorry to hear about your bad experience and would like to hear more. Please reach out to me directly by email.”'}, {'title': 'The sports bar you manage heavily advertises its late-night chicken wing special. However, with three hours until service starts, the chef has just informed you that the kitchen has run out of prepped wings. There are multiple cases of chicken wings in the freezer.  Which action should you take?', 'ques_type': 2, 'options': ['Thaw the chicken wings at room temperature for a time under three hours, then cook according to procedure.', 'Thaw the chicken wings under a stream of warm water under 70°F (21°C), then cook according to procedure.', 'Thaw the chicken wings fully by microwaving them on low power, then cool them to 42°F / 6°C before cooking according to procedure.', 'Cook the chicken wings from frozen until the meat reaches an internal temperature of 165°F / 74°C.'], 'score': 'Cook the chicken wings from frozen until the meat reaches an internal temperature of 165°F / 74°C.'}, {'title': "A customer has complained about the quality of their pizza. They have made it very clear they do not want to pay for it and don't want to wait for something else. True or false: You should void the pizza from the customer's check.", 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "As the new manager at a restaurant with an experienced front-of-house team, you have implemented additional tasks for your servers to perform when it\u2019s slow. However, one server, Sarah, who is particularly well-liked by her customers and coworkers, has been using her seniority as an excuse for ignoring these tasks.  Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Schedule a meeting with Sarah, and ask her to share her opinions and hesitancy regarding the new tasks.",
+            "Reallocate Sarah\u2019s share of the additional tasks to a less experienced server and increase her responsibilities serving customers.",
+            "Perform in-the-moment coaching by reminding Sarah of the tasks that she has overlooked and record the interaction.",
+            "Issue Sarah a written final warning and privately inform her that her inability to follow directions sets a bad example to the team."
+        ],
+        "score": "Schedule a meeting with Sarah, and ask her to share her opinions and hesitancy regarding the new tasks."
+    },
+    {
+        "title": "While writing public responses to recent reviews of your restaurant posted on social media, you come across a particularly negative review. The review mentions your colleague's name, Sam, and claims that Sam treated them disrespectfully on Thursday 12 March. However, Sam was on vacation that week.  How should you respond to the review?",
+        "ques_type": 2,
+        "options": [
+            "Reply publicly: \u201cWe\u2019re sorry to hear about your bad experience, but you must be mistaken. Sam was on vacation on that date.\u201d",
+            "Reply privately: \u201cSam was on vacation on that date. Could you tell us more about the incident so we can identify who it actually was?\u201d",
+            "Reply publicly: \u201cWe\u2019re sorry to hear about your bad experience and would like to hear more. Please reach out to me directly by email.\u201d",
+            "Reply publicly: \u201cWe\u2019re sorry to hear about your bad experience. Please bring in your receipt and we\u2019ll refund the cost of your meal.\u201d"
+        ],
+        "score": "Reply publicly: \u201cWe\u2019re sorry to hear about your bad experience and would like to hear more. Please reach out to me directly by email.\u201d"
+    },
+    {
+        "title": "The sports bar you manage heavily advertises its late-night chicken wing special. However, with three hours until service starts, the chef has just informed you that the kitchen has run out of prepped wings. There are multiple cases of chicken wings in the freezer.  Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Thaw the chicken wings at room temperature for a time under three hours, then cook according to procedure.",
+            "Thaw the chicken wings under a stream of warm water under 70\u00b0F (21\u00b0C), then cook according to procedure.",
+            "Thaw the chicken wings fully by microwaving them on low power, then cool them to 42\u00b0F / 6\u00b0C before cooking according to procedure.",
+            "Cook the chicken wings from frozen until the meat reaches an internal temperature of 165\u00b0F / 74\u00b0C."
+        ],
+        "score": "Cook the chicken wings from frozen until the meat reaches an internal temperature of 165\u00b0F / 74\u00b0C."
+    },
+    {
+        "title": "A customer has complained about the quality of their pizza. They have made it very clear they do not want to pay for it and don't want to wait for something else. True or false: You should void the pizza from the customer's check.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
